--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.041521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.041521.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1337,12 +1337,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1623,12 +1623,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1775,12 +1775,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1889,12 +1889,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2134,12 +2134,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2470,12 +2470,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2673,12 +2673,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2825,12 +2825,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2943,12 +2943,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3133,12 +3133,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3408,12 +3408,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3598,12 +3598,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4016,12 +4016,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4206,12 +4206,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4375,12 +4375,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4417,12 +4417,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4455,12 +4455,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4569,12 +4569,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4738,12 +4738,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4822,12 +4822,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5059,12 +5059,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5292,12 +5292,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5372,12 +5372,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5666,12 +5666,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6044,12 +6044,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6086,12 +6086,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6296,12 +6296,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6456,12 +6456,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6663,12 +6663,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6786,12 +6786,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6938,12 +6938,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6976,12 +6976,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7052,12 +7052,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7090,12 +7090,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7128,12 +7128,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7204,12 +7204,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7399,12 +7399,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7829,12 +7829,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7876,12 +7876,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7914,12 +7914,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7952,12 +7952,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8028,12 +8028,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8066,12 +8066,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8180,12 +8180,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8256,12 +8256,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8585,12 +8585,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9207,12 +9207,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9245,12 +9245,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9443,12 +9443,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9947,12 +9947,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10763,12 +10763,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11012,12 +11012,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11096,12 +11096,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11683,12 +11683,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11846,12 +11846,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11930,12 +11930,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12208,12 +12208,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12288,12 +12288,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12704,12 +12704,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12780,12 +12780,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12861,12 +12861,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13452,12 +13452,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13528,12 +13528,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13604,12 +13604,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13861,12 +13861,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14273,12 +14273,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14693,12 +14693,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15216,12 +15216,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15487,12 +15487,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15682,12 +15682,12 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15934,12 +15934,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16062,12 +16062,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16748,12 +16748,12 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16875,12 +16875,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17470,12 +17470,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18855,12 +18855,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19243,12 +19243,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19319,12 +19319,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20105,12 +20105,12 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20675,12 +20675,12 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21668,12 +21668,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21824,12 +21824,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22065,12 +22065,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22401,12 +22401,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22691,12 +22691,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23458,12 +23458,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23706,12 +23706,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
